--- a/va_facility_data_2025-02-20/Kernersville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kernersville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kernersville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kernersville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf5225350ecbc4044a17aad29e0654989"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R70159e66ce5742e299acaa49651ba0a3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re2f4fb7198b6409fbc7a3ff087a72c18"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1d8a6690af30406ca014754a5b587a4c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb37750f8c5334842b5cc577287fedf81"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd0e405f714d54c4db580380fd0abdd89"/>
   </x:sheets>
 </x:workbook>
 </file>
